--- a/REGULAR/OJT/MARASIGAN, INOCENCIA P..xlsx
+++ b/REGULAR/OJT/MARASIGAN, INOCENCIA P..xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4268B46D-D91A-42C5-90BA-FE9C423ECACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="68">
   <si>
     <t>PERIOD</t>
   </si>
@@ -224,18 +225,46 @@
   <si>
     <t>MARASIGAN, INOCENCIA P.</t>
   </si>
+  <si>
+    <t>PERMANENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL VL = </t>
+  </si>
+  <si>
+    <t>TOTAL SL =</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> *********************NOTHING FOLLOWS***********************</t>
+  </si>
+  <si>
+    <r>
+      <t>COMPULSORY RETIREMENT EFFECTIVE DATE: APRIL</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 21, 2024</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="166" formatCode="###\-###\-###"/>
     <numFmt numFmtId="167" formatCode="&quot;CM&quot;\-#######"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,6 +299,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -459,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -639,6 +676,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1088,7 +1143,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1131,7 +1186,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1195,7 +1250,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1255,7 +1310,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1321,7 +1376,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1384,7 +1439,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1482,7 +1537,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1541,7 +1596,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1606,7 +1661,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1649,7 +1704,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1724,7 +1779,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1910,7 +1965,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1976,7 +2031,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2034,7 +2089,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2100,7 +2155,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2156,7 +2211,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2231,7 +2286,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2274,7 +2329,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2340,7 +2395,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2396,7 +2451,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2494,7 +2549,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2557,7 +2612,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2606,7 +2661,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2623,25 +2678,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K129" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K129" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2653,13 +2708,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2668,14 +2723,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2979,7 +3034,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2989,7 +3044,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2997,34 +3052,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A82" activePane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="E84" sqref="E84"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3576" topLeftCell="A97" activePane="bottomLeft"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3045,7 +3100,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3063,11 +3118,13 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51"/>
+      <c r="B4" s="51" t="s">
+        <v>63</v>
+      </c>
       <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
@@ -3081,7 +3138,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3089,7 +3146,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3102,7 +3159,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -3119,7 +3176,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3154,7 +3211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3163,7 +3220,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>65.5</v>
+        <v>79.625</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3173,12 +3230,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>93.5</v>
+        <v>110.625</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3200,7 +3257,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>42614</v>
       </c>
@@ -3220,7 +3277,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>42644</v>
       </c>
@@ -3240,7 +3297,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>42675</v>
       </c>
@@ -3260,7 +3317,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>42705</v>
       </c>
@@ -3280,7 +3337,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="48" t="s">
         <v>48</v>
       </c>
@@ -3302,7 +3359,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>42736</v>
       </c>
@@ -3322,7 +3379,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>42767</v>
       </c>
@@ -3342,7 +3399,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>42795</v>
       </c>
@@ -3362,7 +3419,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>42826</v>
       </c>
@@ -3382,7 +3439,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>42856</v>
       </c>
@@ -3408,7 +3465,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>50</v>
@@ -3430,7 +3487,7 @@
         <v>42870</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>42887</v>
       </c>
@@ -3450,7 +3507,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>42917</v>
       </c>
@@ -3470,7 +3527,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>42948</v>
       </c>
@@ -3490,7 +3547,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>42979</v>
       </c>
@@ -3510,7 +3567,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43009</v>
       </c>
@@ -3530,7 +3587,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43040</v>
       </c>
@@ -3550,7 +3607,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43070</v>
       </c>
@@ -3574,7 +3631,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="48" t="s">
         <v>47</v>
       </c>
@@ -3596,7 +3653,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43101</v>
       </c>
@@ -3616,7 +3673,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43132</v>
       </c>
@@ -3636,7 +3693,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43160</v>
       </c>
@@ -3656,7 +3713,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43191</v>
       </c>
@@ -3676,7 +3733,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43221</v>
       </c>
@@ -3696,7 +3753,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43252</v>
       </c>
@@ -3716,7 +3773,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>43282</v>
       </c>
@@ -3740,7 +3797,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43313</v>
       </c>
@@ -3760,7 +3817,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43344</v>
       </c>
@@ -3780,7 +3837,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43374</v>
       </c>
@@ -3800,7 +3857,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43405</v>
       </c>
@@ -3820,7 +3877,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43435</v>
       </c>
@@ -3844,7 +3901,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="48" t="s">
         <v>46</v>
       </c>
@@ -3866,7 +3923,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>43466</v>
       </c>
@@ -3886,7 +3943,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>43497</v>
       </c>
@@ -3906,7 +3963,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>43525</v>
       </c>
@@ -3926,7 +3983,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>43556</v>
       </c>
@@ -3946,7 +4003,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>43586</v>
       </c>
@@ -3972,7 +4029,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>43617</v>
       </c>
@@ -3992,7 +4049,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>43647</v>
       </c>
@@ -4012,7 +4069,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>43678</v>
       </c>
@@ -4032,7 +4089,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>43709</v>
       </c>
@@ -4052,7 +4109,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>43739</v>
       </c>
@@ -4072,7 +4129,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>43770</v>
       </c>
@@ -4092,18 +4149,18 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>43800</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C54" s="13">
         <v>1.25</v>
       </c>
       <c r="D54" s="39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="20"/>
@@ -4116,7 +4173,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="48" t="s">
         <v>45</v>
       </c>
@@ -4138,7 +4195,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>43831</v>
       </c>
@@ -4158,7 +4215,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>43862</v>
       </c>
@@ -4178,7 +4235,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>43891</v>
       </c>
@@ -4198,7 +4255,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>43922</v>
       </c>
@@ -4218,7 +4275,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>43952</v>
       </c>
@@ -4238,7 +4295,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>43983</v>
       </c>
@@ -4258,7 +4315,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>44013</v>
       </c>
@@ -4278,7 +4335,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44044</v>
       </c>
@@ -4298,7 +4355,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44075</v>
       </c>
@@ -4318,7 +4375,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44105</v>
       </c>
@@ -4338,7 +4395,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44136</v>
       </c>
@@ -4358,7 +4415,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44166</v>
       </c>
@@ -4382,7 +4439,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="48" t="s">
         <v>44</v>
       </c>
@@ -4404,7 +4461,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44197</v>
       </c>
@@ -4424,7 +4481,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44228</v>
       </c>
@@ -4444,7 +4501,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44256</v>
       </c>
@@ -4464,7 +4521,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44287</v>
       </c>
@@ -4484,7 +4541,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44317</v>
       </c>
@@ -4504,7 +4561,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44348</v>
       </c>
@@ -4524,7 +4581,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>44378</v>
       </c>
@@ -4544,7 +4601,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>44409</v>
       </c>
@@ -4564,7 +4621,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>44440</v>
       </c>
@@ -4584,7 +4641,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>44470</v>
       </c>
@@ -4604,7 +4661,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>44501</v>
       </c>
@@ -4624,7 +4681,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>44531</v>
       </c>
@@ -4650,7 +4707,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="48" t="s">
         <v>43</v>
       </c>
@@ -4672,7 +4729,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>44562</v>
       </c>
@@ -4692,7 +4749,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>44593</v>
       </c>
@@ -4712,7 +4769,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>44621</v>
       </c>
@@ -4732,7 +4789,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>44652</v>
       </c>
@@ -4752,7 +4809,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>44682</v>
       </c>
@@ -4772,7 +4829,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>44713</v>
       </c>
@@ -4792,7 +4849,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>44743</v>
       </c>
@@ -4818,7 +4875,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>44774</v>
       </c>
@@ -4838,7 +4895,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>44805</v>
       </c>
@@ -4858,7 +4915,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>44835</v>
       </c>
@@ -4878,7 +4935,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>44866</v>
       </c>
@@ -4898,7 +4955,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>44896</v>
       </c>
@@ -4924,7 +4981,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="48" t="s">
         <v>60</v>
       </c>
@@ -4942,9 +4999,9 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13">
@@ -4962,334 +5019,361 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
-        <v>44958</v>
+        <v>44985</v>
       </c>
       <c r="B96" s="20"/>
-      <c r="C96" s="13"/>
+      <c r="C96" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D96" s="39"/>
       <c r="E96" s="9"/>
       <c r="F96" s="20"/>
-      <c r="G96" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G96" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H96" s="39"/>
       <c r="I96" s="9"/>
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
-        <v>44986</v>
+        <v>45016</v>
       </c>
       <c r="B97" s="20"/>
-      <c r="C97" s="13"/>
+      <c r="C97" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D97" s="39"/>
       <c r="E97" s="9"/>
       <c r="F97" s="20"/>
-      <c r="G97" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G97" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H97" s="39"/>
       <c r="I97" s="9"/>
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B98" s="20"/>
-      <c r="C98" s="13"/>
+      <c r="C98" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D98" s="39"/>
       <c r="E98" s="9"/>
       <c r="F98" s="20"/>
-      <c r="G98" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G98" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H98" s="39"/>
       <c r="I98" s="9"/>
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
-        <v>45047</v>
+        <v>45077</v>
       </c>
       <c r="B99" s="20"/>
-      <c r="C99" s="13"/>
+      <c r="C99" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D99" s="39"/>
       <c r="E99" s="9"/>
       <c r="F99" s="20"/>
-      <c r="G99" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G99" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H99" s="39"/>
       <c r="I99" s="9"/>
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
-        <v>45078</v>
+        <v>45107</v>
       </c>
       <c r="B100" s="20"/>
-      <c r="C100" s="13"/>
+      <c r="C100" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D100" s="39"/>
       <c r="E100" s="9"/>
       <c r="F100" s="20"/>
-      <c r="G100" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G100" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H100" s="39"/>
       <c r="I100" s="9"/>
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B101" s="20"/>
-      <c r="C101" s="13"/>
+      <c r="C101" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D101" s="39"/>
       <c r="E101" s="9"/>
       <c r="F101" s="20"/>
-      <c r="G101" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G101" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H101" s="39"/>
       <c r="I101" s="9"/>
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
-        <v>45139</v>
+        <v>45169</v>
       </c>
       <c r="B102" s="20"/>
-      <c r="C102" s="13"/>
+      <c r="C102" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D102" s="39"/>
       <c r="E102" s="9"/>
       <c r="F102" s="20"/>
-      <c r="G102" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G102" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H102" s="39"/>
       <c r="I102" s="9"/>
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
-        <v>45170</v>
+        <v>45199</v>
       </c>
       <c r="B103" s="20"/>
-      <c r="C103" s="13"/>
+      <c r="C103" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D103" s="39"/>
       <c r="E103" s="9"/>
       <c r="F103" s="20"/>
-      <c r="G103" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G103" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H103" s="39"/>
       <c r="I103" s="9"/>
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
-        <v>45200</v>
+        <v>45230</v>
       </c>
       <c r="B104" s="20"/>
-      <c r="C104" s="13"/>
+      <c r="C104" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D104" s="39"/>
       <c r="E104" s="9"/>
       <c r="F104" s="20"/>
-      <c r="G104" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G104" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H104" s="39"/>
       <c r="I104" s="9"/>
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
-        <v>45231</v>
+        <v>45260</v>
       </c>
       <c r="B105" s="20"/>
-      <c r="C105" s="13"/>
+      <c r="C105" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D105" s="39"/>
       <c r="E105" s="9"/>
       <c r="F105" s="20"/>
-      <c r="G105" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G105" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H105" s="39"/>
       <c r="I105" s="9"/>
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B106" s="20"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="39"/>
+        <v>45291</v>
+      </c>
+      <c r="B106" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C106" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D106" s="39">
+        <v>5</v>
+      </c>
       <c r="E106" s="9"/>
       <c r="F106" s="20"/>
-      <c r="G106" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G106" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H106" s="39"/>
       <c r="I106" s="9"/>
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
-        <v>45292</v>
+        <v>45322</v>
       </c>
       <c r="B107" s="20"/>
-      <c r="C107" s="13"/>
+      <c r="C107" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D107" s="39"/>
       <c r="E107" s="9"/>
       <c r="F107" s="20"/>
-      <c r="G107" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G107" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H107" s="39"/>
       <c r="I107" s="9"/>
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
-        <v>45323</v>
+        <v>45351</v>
       </c>
       <c r="B108" s="20"/>
-      <c r="C108" s="13"/>
+      <c r="C108" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D108" s="39"/>
       <c r="E108" s="9"/>
       <c r="F108" s="20"/>
-      <c r="G108" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G108" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H108" s="39"/>
       <c r="I108" s="9"/>
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
-        <v>45352</v>
+        <v>45382</v>
       </c>
       <c r="B109" s="20"/>
-      <c r="C109" s="13"/>
+      <c r="C109" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D109" s="39"/>
       <c r="E109" s="9"/>
       <c r="F109" s="20"/>
-      <c r="G109" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G109" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H109" s="39"/>
       <c r="I109" s="9"/>
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
-        <v>45383</v>
+        <v>45392</v>
       </c>
       <c r="B110" s="20"/>
-      <c r="C110" s="13"/>
+      <c r="C110" s="13">
+        <v>0.875</v>
+      </c>
       <c r="D110" s="39"/>
       <c r="E110" s="9"/>
       <c r="F110" s="20"/>
-      <c r="G110" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G110" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>0.875</v>
       </c>
       <c r="H110" s="39"/>
       <c r="I110" s="9"/>
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="40">
-        <v>45413</v>
-      </c>
-      <c r="B111" s="20"/>
-      <c r="C111" s="13"/>
-      <c r="D111" s="39"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="20"/>
-      <c r="G111" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H111" s="39"/>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" s="62"/>
+      <c r="B111" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C111" s="64"/>
+      <c r="D111" s="63"/>
+      <c r="E111" s="65"/>
+      <c r="F111" s="11"/>
+      <c r="G111" s="13"/>
+      <c r="H111" s="11"/>
       <c r="I111" s="9"/>
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="40">
-        <v>45444</v>
-      </c>
-      <c r="B112" s="20"/>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" s="40"/>
+      <c r="B112" s="11"/>
       <c r="C112" s="13"/>
-      <c r="D112" s="39"/>
+      <c r="D112" s="66" t="s">
+        <v>64</v>
+      </c>
       <c r="E112" s="9"/>
-      <c r="F112" s="20"/>
-      <c r="G112" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H112" s="39"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="13"/>
+      <c r="H112" s="66" t="s">
+        <v>65</v>
+      </c>
       <c r="I112" s="9"/>
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="40">
-        <v>45474</v>
-      </c>
-      <c r="B113" s="20"/>
-      <c r="C113" s="13"/>
-      <c r="D113" s="39"/>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" s="40"/>
+      <c r="B113" s="11"/>
+      <c r="C113" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D113" s="11"/>
       <c r="E113" s="9"/>
-      <c r="F113" s="20"/>
-      <c r="G113" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H113" s="39"/>
-      <c r="I113" s="9"/>
-      <c r="J113" s="11"/>
-      <c r="K113" s="20"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="40">
-        <v>45505</v>
-      </c>
+      <c r="F113" s="11"/>
+      <c r="G113" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="H113" s="63"/>
+      <c r="I113" s="65"/>
+      <c r="J113" s="63"/>
+      <c r="K113" s="67"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
       <c r="D114" s="39"/>
@@ -5304,10 +5388,8 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="40">
-        <v>45536</v>
-      </c>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
       <c r="D115" s="39"/>
@@ -5322,10 +5404,8 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="40">
-        <v>45566</v>
-      </c>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
       <c r="D116" s="39"/>
@@ -5340,7 +5420,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5356,7 +5436,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5372,7 +5452,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5388,7 +5468,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5404,7 +5484,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5420,7 +5500,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5436,7 +5516,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5452,7 +5532,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5468,7 +5548,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5484,7 +5564,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5500,7 +5580,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5516,7 +5596,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5532,7 +5612,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="41"/>
       <c r="B129" s="15"/>
       <c r="C129" s="42"/>
@@ -5563,10 +5643,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5589,29 +5669,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -5624,7 +5704,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5653,13 +5733,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
-        <v>1.25</v>
-      </c>
-      <c r="B3" s="11">
-        <v>1.25</v>
-      </c>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3"/>
@@ -5667,27 +5743,29 @@
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="1"/>
+      <c r="J3" s="1">
+        <v>10</v>
+      </c>
       <c r="K3" s="35">
         <f>J4-1</f>
-        <v>-1</v>
-      </c>
-      <c r="L3" s="45" t="str">
+        <v>9</v>
+      </c>
+      <c r="L3" s="45">
         <f>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</f>
-        <v>---</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -5708,7 +5786,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -5735,7 +5813,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -5761,7 +5839,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -5787,7 +5865,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -5813,7 +5891,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -5839,7 +5917,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -5865,7 +5943,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -5891,7 +5969,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -5917,7 +5995,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -5937,7 +6015,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -5957,7 +6035,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -5977,7 +6055,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -5998,7 +6076,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -6019,7 +6097,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -6040,7 +6118,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -6061,7 +6139,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -6082,7 +6160,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -6103,7 +6181,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -6124,7 +6202,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -6145,7 +6223,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -6166,7 +6244,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -6187,7 +6265,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -6208,7 +6286,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -6229,7 +6307,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -6250,7 +6328,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -6271,7 +6349,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -6292,7 +6370,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -6313,7 +6391,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -6334,7 +6412,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -6355,7 +6433,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -6376,7 +6454,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -6397,7 +6475,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -6406,7 +6484,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -6415,7 +6493,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -6424,7 +6502,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -6433,7 +6511,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -6442,7 +6520,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -6451,7 +6529,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -6460,7 +6538,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -6469,7 +6547,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -6478,7 +6556,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -6487,7 +6565,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -6496,7 +6574,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -6505,7 +6583,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -6514,7 +6592,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -6523,7 +6601,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -6532,7 +6610,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -6541,7 +6619,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -6550,7 +6628,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -6559,7 +6637,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -6568,7 +6646,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -6577,7 +6655,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -6586,7 +6664,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -6595,7 +6673,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -6604,7 +6682,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -6613,7 +6691,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -6622,7 +6700,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -6631,7 +6709,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -6640,7 +6718,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -6649,7 +6727,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -6658,7 +6736,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
